--- a/examples/models/Tcell_differentiation.xlsx
+++ b/examples/models/Tcell_differentiation.xlsx
@@ -1589,7 +1589,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>(IL18,!STAT6)</t>
+          <t>(!STAT6,IL18)</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr"/>
@@ -1731,7 +1731,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>(STAT6,!Tbet),(!Tbet,GATA3)</t>
+          <t>(STAT6,!Tbet),(GATA3,!Tbet)</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr"/>
@@ -1802,7 +1802,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>(!GATA3,IL12R)</t>
+          <t>(IL12R,!GATA3)</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr"/>
@@ -1944,7 +1944,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>(NFAT,!STAT3),(!STAT3,IRAK),(!STAT3,Tbet),(!STAT3,STAT4)</t>
+          <t>(NFAT,!STAT3),(!STAT3,IRAK),(!STAT3,Tbet),(STAT4,!STAT3)</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr"/>

--- a/examples/models/Tcell_differentiation.xlsx
+++ b/examples/models/Tcell_differentiation.xlsx
@@ -1021,7 +1021,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>(GATA3,!STAT1)</t>
+          <t>(!STAT1,GATA3)</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr"/>
@@ -1092,7 +1092,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>(!GATA3,Tbet),(!GATA3,STAT1)</t>
+          <t>(!GATA3,Tbet),(STAT1,!GATA3)</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr"/>
@@ -1731,7 +1731,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>(STAT6,!Tbet),(GATA3,!Tbet)</t>
+          <t>(!Tbet,STAT6),(!Tbet,GATA3)</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr"/>
@@ -1802,7 +1802,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>(IL12R,!GATA3)</t>
+          <t>(!GATA3,IL12R)</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr"/>
@@ -1944,7 +1944,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>(NFAT,!STAT3),(!STAT3,IRAK),(!STAT3,Tbet),(STAT4,!STAT3)</t>
+          <t>(!STAT3,NFAT),(!STAT3,IRAK),(!STAT3,Tbet),(!STAT3,STAT4)</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr"/>
@@ -2228,7 +2228,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>(IFNgR,!SOCS1)</t>
+          <t>(!SOCS1,IFNgR)</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr"/>

--- a/examples/models/Tcell_differentiation.xlsx
+++ b/examples/models/Tcell_differentiation.xlsx
@@ -1092,7 +1092,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>(!GATA3,Tbet),(STAT1,!GATA3)</t>
+          <t>(Tbet,!GATA3),(STAT1,!GATA3)</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr"/>
@@ -1305,7 +1305,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>(IL4,!SOCS1)</t>
+          <t>(!SOCS1,IL4)</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr"/>
@@ -1731,7 +1731,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>(!Tbet,STAT6),(!Tbet,GATA3)</t>
+          <t>(STAT6,!Tbet),(!Tbet,GATA3)</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr"/>
@@ -1802,7 +1802,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>(!GATA3,IL12R)</t>
+          <t>(IL12R,!GATA3)</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr"/>
@@ -1944,7 +1944,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>(!STAT3,NFAT),(!STAT3,IRAK),(!STAT3,Tbet),(!STAT3,STAT4)</t>
+          <t>(NFAT,!STAT3),(IRAK,!STAT3),(Tbet,!STAT3),(STAT4,!STAT3)</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr"/>
